--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550010.4677575121</v>
+        <v>550010.467757512</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514374</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006067</v>
+        <v>18327015.93006068</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183962</v>
+        <v>5475808.405183963</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>241.0142888776591</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>161.7854600615799</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>18.24239072971897</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>116.325098768111</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,25 +1215,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,22 +1412,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>46.03546545923035</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V14" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,19 +1889,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>123.6003327477366</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1971,10 +1971,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,25 +2160,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>87.21341767081995</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>31.69280399314771</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,64 +2327,64 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,28 +2397,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>31.69844046683744</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>66.95039176927961</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2561,64 +2561,64 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.809496073036188</v>
+      </c>
+      <c r="I26" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,28 +2634,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>68.3854176612075</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2883,16 +2883,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>31.7901310990939</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>100.0376190809312</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,52 +2950,52 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3171,10 +3171,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3281,58 +3281,58 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>56.91690033700354</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.6846781620519644</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3430,46 +3430,46 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3515,16 +3515,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>11.86372679529251</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,7 +3645,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>189.6723709928539</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3740,14 +3740,14 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>192.2772128512057</v>
       </c>
     </row>
     <row r="43">
@@ -3895,61 +3895,61 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3977,20 +3977,20 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>45.35693110212444</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,10 +4110,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>284.1276524520142</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>40.6788758079141</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W2" t="n">
-        <v>40.6788758079141</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4413,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>471.2443511720524</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W3" t="n">
-        <v>227.7955745279523</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X3" t="n">
-        <v>227.7955745279523</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4604,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>259.2693145670932</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>259.2693145670932</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M6" t="n">
         <v>234.810827406191</v>
-      </c>
-      <c r="M6" t="n">
-        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4677,19 +4677,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>945.6304982078898</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>710.4783899761471</v>
+        <v>846.5570557448675</v>
       </c>
       <c r="W6" t="n">
-        <v>467.0296133320471</v>
+        <v>603.1082791007675</v>
       </c>
       <c r="X6" t="n">
-        <v>467.0296133320471</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y6" t="n">
-        <v>259.2693145670932</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,16 +4887,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C11" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D11" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W11" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>816.3871559026832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
         <v>894.6625969973069</v>
@@ -5145,25 +5145,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5309,19 +5309,19 @@
         <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="F18" t="n">
         <v>362.4348659156472</v>
@@ -5601,7 +5601,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="19">
@@ -5704,10 +5704,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360.2295980564601</v>
+        <v>628.6880980958762</v>
       </c>
       <c r="C21" t="n">
-        <v>360.2295980564601</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D21" t="n">
-        <v>360.2295980564601</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E21" t="n">
-        <v>360.2295980564601</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F21" t="n">
-        <v>360.2295980564601</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4987726390756</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>108.129637046655</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5838,13 +5838,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>830.8746927371101</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>628.6880980958762</v>
       </c>
       <c r="U21" t="n">
-        <v>360.2295980564601</v>
+        <v>628.6880980958762</v>
       </c>
       <c r="V21" t="n">
-        <v>360.2295980564601</v>
+        <v>628.6880980958762</v>
       </c>
       <c r="W21" t="n">
-        <v>360.2295980564601</v>
+        <v>628.6880980958762</v>
       </c>
       <c r="X21" t="n">
-        <v>360.2295980564601</v>
+        <v>628.6880980958762</v>
       </c>
       <c r="Y21" t="n">
-        <v>360.2295980564601</v>
+        <v>628.6880980958762</v>
       </c>
     </row>
     <row r="22">
@@ -5935,19 +5935,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6023,16 +6023,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.29976984439196</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X24" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y24" t="n">
-        <v>51.29976984439196</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
         <v>829.5248650203655</v>
@@ -6163,34 +6163,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>874.2758585542716</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>517.4848137278872</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>517.4848137278872</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>517.4848137278872</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>274.0360370837871</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>30.58726043968704</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
-        <v>30.58726043968704</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H26" t="n">
-        <v>30.58726043968704</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>517.4848137278872</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>517.4848137278872</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>517.4848137278872</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>517.4848137278872</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y26" t="n">
-        <v>517.4848137278872</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>964.0571555106362</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C27" t="n">
-        <v>817.1412885554689</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6339,16 +6339,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y27" t="n">
-        <v>964.0571555106362</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="28">
@@ -6418,7 +6418,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>343.8760884571613</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>343.8760884571613</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>142.4461484402802</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C30" t="n">
-        <v>142.4461484402802</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D30" t="n">
-        <v>142.4461484402802</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E30" t="n">
-        <v>142.4461484402802</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F30" t="n">
-        <v>142.4461484402802</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>120.3292431919614</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X30" t="n">
-        <v>518.4217842253022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y30" t="n">
-        <v>310.6614854603483</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="D32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E32" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C32" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="F32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X35" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>284.725395637266</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.272366356139</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7017,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W36" t="n">
-        <v>492.3847606029253</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X36" t="n">
-        <v>284.5332603973924</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y36" t="n">
-        <v>76.77296163243852</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
         <v>829.5248650203655</v>
@@ -7117,28 +7117,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>343.8760884571613</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C38" t="n">
-        <v>343.8760884571613</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>587.3248651012614</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U38" t="n">
-        <v>343.8760884571613</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V38" t="n">
-        <v>343.8760884571613</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W38" t="n">
-        <v>343.8760884571613</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X38" t="n">
-        <v>343.8760884571613</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y38" t="n">
-        <v>343.8760884571613</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="39">
@@ -7254,43 +7254,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>933.9571464551993</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U39" t="n">
-        <v>705.7335281915883</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V39" t="n">
-        <v>470.5814199598456</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>210.869396638348</v>
       </c>
       <c r="X39" t="n">
         <v>19.28114311021272</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7442,19 +7442,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
         <v>19.28114311021272</v>
@@ -7494,10 +7494,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N42" t="n">
         <v>473.4149733950735</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>933.9571464551993</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>705.7335281915883</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>470.5814199598456</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>227.1326433157456</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="43">
@@ -7597,22 +7597,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="C44" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="D44" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="E44" t="n">
+        <v>477.1596022224361</v>
+      </c>
+      <c r="F44" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E44" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F44" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7682,16 +7682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>65.09622503155055</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7728,16 +7728,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O45" t="n">
         <v>781.4136778972854</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W45" t="n">
-        <v>619.4388494194218</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X45" t="n">
-        <v>411.587349213889</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.827050448935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,10 +8544,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,10 +8769,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8781,7 +8781,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N15" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N18" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9486,16 +9486,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,13 +11142,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,19 +11376,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22550,7 +22550,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22601,7 +22601,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>86.73796959247585</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>348.5473453077446</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22647,7 +22647,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22680,16 +22680,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>71.01512708784537</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>380.9243455904444</v>
       </c>
       <c r="C5" t="n">
         <v>124.2586028933485</v>
@@ -22790,7 +22790,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22802,7 +22802,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22881,10 +22881,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22917,16 +22917,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>207.6989913512558</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>116.4754883813142</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23063,22 +23063,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23103,25 +23103,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>60.23598749168869</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23145,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23261,7 +23261,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,16 +23270,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,22 +23300,22 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,28 +23337,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>126.6730335290854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,19 +23385,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23516,7 +23516,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V14" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23738,22 +23738,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,19 +23777,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,16 +23811,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>21.46887964564732</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23859,10 +23859,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23944,13 +23944,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,19 +23969,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,25 +24048,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>2.183215180595127</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>139.9903671106901</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,10 +24215,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24263,16 +24263,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24285,28 +24285,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>141.0100585214783</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>80.49467379535915</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24403,13 +24403,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24449,22 +24449,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7562331984329429</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,28 +24485,28 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,28 +24522,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>87.28582189465754</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24579,16 +24579,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24658,10 +24658,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24695,13 +24695,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>142.0904719091984</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,25 +24725,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,7 +24756,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24771,16 +24771,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>105.5533860641167</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>12.1978251555653</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24838,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E32" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,7 +24968,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,7 +25044,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25059,10 +25059,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>142.630753465213</v>
       </c>
       <c r="Y33" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25202,10 +25202,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>366.4657846212724</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109.6162833128638</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>146.7603874025868</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25251,7 +25251,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25394,7 +25394,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>274.3483346048629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25403,16 +25403,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>403.4390107198425</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>16.10061421062355</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366913</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,13 +25628,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25682,13 +25682,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V41" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,13 +25707,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>13.40548292609864</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25865,7 +25865,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,10 +25874,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25922,7 +25922,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25956,10 +25956,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>66.87851313437201</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,10 +25998,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142978</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473557.9167142976</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="16">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="C2" t="n">
         <v>108004.437145366</v>
-      </c>
-      <c r="C2" t="n">
-        <v>108004.4371453661</v>
       </c>
       <c r="D2" t="n">
         <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
         <v>108004.4371453661</v>
@@ -26341,10 +26341,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
+        <v>108004.437145366</v>
+      </c>
+      <c r="M2" t="n">
         <v>108004.4371453661</v>
-      </c>
-      <c r="M2" t="n">
-        <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.11787725023</v>
+        <v>3448.117877250231</v>
       </c>
       <c r="C4" t="n">
         <v>3448.117877250231</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.11787725023</v>
+        <v>3448.117877250231</v>
       </c>
       <c r="E4" t="n">
         <v>3448.11787725023</v>
       </c>
       <c r="F4" t="n">
-        <v>3448.117877250231</v>
+        <v>3448.11787725023</v>
       </c>
       <c r="G4" t="n">
         <v>3448.117877250231</v>
@@ -26436,16 +26436,16 @@
         <v>3448.117877250231</v>
       </c>
       <c r="I4" t="n">
+        <v>3448.11787725023</v>
+      </c>
+      <c r="J4" t="n">
         <v>3448.117877250231</v>
       </c>
-      <c r="J4" t="n">
-        <v>3448.11787725023</v>
-      </c>
       <c r="K4" t="n">
-        <v>3448.11787725023</v>
+        <v>3448.117877250231</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.11787725023</v>
+        <v>3448.117877250231</v>
       </c>
       <c r="M4" t="n">
         <v>3448.117877250231</v>
@@ -26454,7 +26454,7 @@
         <v>3448.117877250231</v>
       </c>
       <c r="O4" t="n">
-        <v>3448.11787725023</v>
+        <v>3448.117877250231</v>
       </c>
       <c r="P4" t="n">
         <v>3448.117877250231</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24494.3810271936</v>
+        <v>-24494.38102719358</v>
       </c>
       <c r="C6" t="n">
+        <v>56275.05050435414</v>
+      </c>
+      <c r="D6" t="n">
         <v>56275.05050435417</v>
       </c>
-      <c r="D6" t="n">
-        <v>56275.05050435416</v>
-      </c>
       <c r="E6" t="n">
-        <v>89902.65050435418</v>
+        <v>89902.65050435413</v>
       </c>
       <c r="F6" t="n">
         <v>89902.65050435415</v>
       </c>
       <c r="G6" t="n">
+        <v>89902.65050435413</v>
+      </c>
+      <c r="H6" t="n">
+        <v>89902.65050435413</v>
+      </c>
+      <c r="I6" t="n">
+        <v>89902.65050435411</v>
+      </c>
+      <c r="J6" t="n">
+        <v>26842.70790524792</v>
+      </c>
+      <c r="K6" t="n">
         <v>89902.65050435414</v>
       </c>
-      <c r="H6" t="n">
-        <v>89902.6505043541</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>89902.65050435413</v>
+      </c>
+      <c r="M6" t="n">
+        <v>89902.65050435415</v>
+      </c>
+      <c r="N6" t="n">
         <v>89902.65050435414</v>
       </c>
-      <c r="J6" t="n">
-        <v>26842.70790524794</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>89902.65050435413</v>
       </c>
-      <c r="L6" t="n">
-        <v>89902.65050435415</v>
-      </c>
-      <c r="M6" t="n">
-        <v>89902.65050435411</v>
-      </c>
-      <c r="N6" t="n">
-        <v>89902.65050435413</v>
-      </c>
-      <c r="O6" t="n">
-        <v>89902.6505043541</v>
-      </c>
       <c r="P6" t="n">
-        <v>89902.65050435413</v>
+        <v>89902.65050435414</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34781,13 +34781,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35255,7 +35255,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,10 +35264,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35501,7 +35501,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N15" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36206,16 +36206,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>550010.467757512</v>
+        <v>577357.7000544966</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514374</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183963</v>
+        <v>5475808.405183962</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>20.18757968827078</v>
       </c>
       <c r="V3" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>56.53057837339762</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D8" t="n">
+      <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D9" t="n">
-        <v>87.20907807295006</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,58 +1382,58 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,13 +1503,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>64.66314899205665</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1610,67 +1610,67 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S14" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T14" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U14" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>3.833957768458675</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.6003327477366</v>
+        <v>124.3469240739945</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1944,7 +1944,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,20 +2078,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>31.69280399314771</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="22">
@@ -2318,13 +2318,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2397,28 +2397,28 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>66.95039176927961</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>89.89109712599213</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2488,61 +2488,61 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,19 +2634,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,10 +2697,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,73 +2792,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="F29" t="n">
+        <v>50.46697834767978</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2877,22 +2877,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>125.8621094766075</v>
       </c>
       <c r="H30" t="n">
-        <v>100.0376190809312</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,73 +3026,73 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>111.1751113141406</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>63.14223173826446</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,11 +3266,11 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>3.265316057196634</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,25 +3345,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6846781620519644</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>123.0310575543738</v>
       </c>
     </row>
     <row r="37">
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,22 +3509,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
-        <v>11.86372679529251</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>189.6723709928539</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>82.28530073128384</v>
       </c>
     </row>
     <row r="40">
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="V41" t="n">
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>25.7440292013384</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>192.2772128512057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="45">
@@ -4059,25 +4059,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>62.07749986335751</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4141,46 +4141,46 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>517.4848137278872</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>517.4848137278872</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V2" t="n">
-        <v>274.0360370837871</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W2" t="n">
-        <v>274.0360370837871</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X2" t="n">
-        <v>30.58726043968704</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y2" t="n">
-        <v>30.58726043968704</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>492.4565854669654</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>318.0035561858384</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,19 +4413,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4440,19 +4440,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>943.6656608760193</v>
       </c>
       <c r="V3" t="n">
-        <v>846.5570557448675</v>
+        <v>943.6656608760193</v>
       </c>
       <c r="W3" t="n">
-        <v>603.1082791007675</v>
+        <v>700.2168842319193</v>
       </c>
       <c r="X3" t="n">
-        <v>395.2567788952347</v>
+        <v>700.2168842319193</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.4964801302808</v>
+        <v>492.4565854669654</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>718.7806050553886</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C5" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D5" t="n">
-        <v>475.3318284112885</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E5" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F5" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H5" t="n">
         <v>231.8830517671884</v>
@@ -4592,25 +4592,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>738.740224174005</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>564.287194892878</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>415.3527852316268</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4650,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4680,16 +4680,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>846.5570557448675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>603.1082791007675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>906.955561194073</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>756.2968567456824</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C9" t="n">
-        <v>756.2968567456824</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
         <v>668.2068788942177</v>
@@ -4887,16 +4887,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>756.2968567456824</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C11" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D11" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E11" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F11" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5066,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X11" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="12">
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O12" t="n">
         <v>894.6625969973069</v>
@@ -5151,19 +5151,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>421.9673747597683</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>421.9673747597683</v>
       </c>
       <c r="W12" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="X12" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y12" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="13">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W14" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X14" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,19 +5361,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5394,13 +5394,13 @@
         <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="E17" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="F17" t="n">
-        <v>467.067986854209</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G17" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>487.2836868729568</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5704,10 +5704,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>628.6880980958762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>454.2350688147492</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>830.8746927371101</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>628.6880980958762</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>628.6880980958762</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>628.6880980958762</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>628.6880980958762</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>628.6880980958762</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y21" t="n">
-        <v>628.6880980958762</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
         <v>19.28114311021272</v>
@@ -6026,13 +6026,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>735.8335372470253</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>735.8335372470253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6078,13 +6078,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6102,16 +6102,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W24" t="n">
-        <v>735.8335372470253</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X24" t="n">
-        <v>735.8335372470253</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y24" t="n">
-        <v>735.8335372470253</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
         <v>829.5248650203655</v>
@@ -6190,7 +6190,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6260,16 +6260,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W26" t="n">
         <v>477.1596022224361</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>69.84447166430675</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C27" t="n">
-        <v>69.84447166430675</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="D27" t="n">
-        <v>69.84447166430675</v>
+        <v>82.77962309005554</v>
       </c>
       <c r="E27" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6312,7 +6312,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>277.6047704292607</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>69.84447166430675</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6421,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6485,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>259.0600686093459</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="C30" t="n">
-        <v>259.0600686093459</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="D30" t="n">
-        <v>259.0600686093459</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="E30" t="n">
-        <v>259.0600686093459</v>
+        <v>293.7032776518786</v>
       </c>
       <c r="F30" t="n">
-        <v>259.0600686093459</v>
+        <v>147.1687196787636</v>
       </c>
       <c r="G30" t="n">
-        <v>120.3292431919614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,13 +6552,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>259.0600686093459</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>259.0600686093459</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W30" t="n">
-        <v>259.0600686093459</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X30" t="n">
-        <v>259.0600686093459</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y30" t="n">
-        <v>259.0600686093459</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="31">
@@ -6643,19 +6643,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6737,13 +6737,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>131.5792353467183</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6810,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X33" t="n">
-        <v>20.03527576299844</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>131.5792353467183</v>
       </c>
     </row>
     <row r="34">
@@ -6886,13 +6886,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
         <v>829.5248650203655</v>
@@ -6914,7 +6914,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6962,22 +6962,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
         <v>506.1786963984129</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>284.725395637266</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="C36" t="n">
-        <v>110.272366356139</v>
+        <v>428.1192463369997</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7020,46 +7020,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>660.701031422288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>660.701031422288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y36" t="n">
-        <v>452.9407326573341</v>
+        <v>596.3345833570677</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,43 +7260,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>454.3181732824481</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>210.869396638348</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>352.9716273967953</v>
+        <v>378.9756972971371</v>
       </c>
       <c r="C42" t="n">
-        <v>178.5185981156682</v>
+        <v>204.52266801601</v>
       </c>
       <c r="D42" t="n">
-        <v>178.5185981156682</v>
+        <v>204.52266801601</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>45.28521301055454</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>45.28521301055454</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>45.28521301055454</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>45.28521301055454</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7491,22 +7491,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7533,7 +7533,7 @@
         <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>352.9716273967953</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="43">
@@ -7591,10 +7591,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
         <v>19.28114311021272</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D44" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E44" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
         <v>262.7299197543128</v>
@@ -7688,10 +7688,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7734,16 +7734,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7758,19 +7758,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>434.8929420806995</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>227.0414418751666</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
         <v>19.28114311021272</v>
@@ -7828,28 +7828,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,22 +8061,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8535,19 +8535,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,7 +8781,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -9009,13 +9009,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9726,16 +9726,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2508595994748</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10200,7 +10200,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,10 +10668,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>343.4899854645034</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22607,10 +22607,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,22 +22623,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22647,7 +22647,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22680,16 +22680,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>205.753802392704</v>
       </c>
       <c r="V3" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>380.9243455904444</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22799,7 +22799,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>305.6710867513173</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22832,7 +22832,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22844,13 +22844,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,16 +22863,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22881,7 +22881,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22920,16 +22920,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>149.1521174039067</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,10 +22981,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23018,31 +23018,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23100,10 +23100,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D9" t="n">
-        <v>60.23598749168869</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23145,7 +23145,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23261,7 +23261,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23306,22 +23306,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23343,7 +23343,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23358,7 +23358,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,13 +23391,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>161.2782330889182</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23498,13 +23498,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23537,28 +23537,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23595,7 +23595,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23634,7 +23634,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>247.8610253924609</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>152.5379588693787</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>313.921378732166</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1801156868699</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,10 +23774,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23820,7 +23820,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>21.46887964564732</v>
+        <v>20.72228831938942</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23832,7 +23832,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>32.75045248984648</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24048,19 +24048,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>139.9903671106901</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="22">
@@ -24206,13 +24206,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24285,28 +24285,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>80.49467379535915</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24342,13 +24342,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="26">
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24500,13 +24500,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,19 +24522,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>94.78158527535656</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>87.28582189465754</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24576,7 +24576,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,10 +24585,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24619,7 +24619,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,16 +24680,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>356.4090673940316</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24765,22 +24765,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>11.48140768660318</v>
       </c>
       <c r="H30" t="n">
-        <v>12.1978251555653</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,13 +24807,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>61.53338767417517</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25050,19 +25050,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>142.630753465213</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,10 +25154,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25202,10 +25202,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>366.4657846212724</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,25 +25233,25 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>146.7603874025868</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>82.65163822293053</v>
       </c>
     </row>
     <row r="37">
@@ -25357,7 +25357,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,22 +25397,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>403.4390107198425</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25439,13 +25439,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25533,10 +25533,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>16.10061421062355</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>123.3973950460205</v>
       </c>
     </row>
     <row r="40">
@@ -25573,7 +25573,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>175.4015535970057</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25725,7 +25725,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>63.65260365007668</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.40548292609864</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,13 +25831,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25871,10 +25871,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="45">
@@ -25947,25 +25947,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>95.56758059204344</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,7 +26068,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142978</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142974</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142976</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142974</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="15">
@@ -26314,10 +26314,10 @@
         <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="D2" t="n">
         <v>108004.437145366</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
@@ -26335,7 +26335,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="J2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
         <v>108004.437145366</v>
@@ -26344,7 +26344,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-24494.38102719358</v>
+        <v>-21225.79564764732</v>
       </c>
       <c r="C6" t="n">
-        <v>56275.05050435414</v>
+        <v>59543.63588390042</v>
       </c>
       <c r="D6" t="n">
-        <v>56275.05050435417</v>
+        <v>59543.6358839004</v>
       </c>
       <c r="E6" t="n">
-        <v>89902.65050435413</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="F6" t="n">
-        <v>89902.65050435415</v>
+        <v>93171.23588390042</v>
       </c>
       <c r="G6" t="n">
-        <v>89902.65050435413</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="H6" t="n">
-        <v>89902.65050435413</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="I6" t="n">
-        <v>89902.65050435411</v>
+        <v>93171.23588390037</v>
       </c>
       <c r="J6" t="n">
-        <v>26842.70790524792</v>
+        <v>30111.29328479416</v>
       </c>
       <c r="K6" t="n">
-        <v>89902.65050435414</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="L6" t="n">
-        <v>89902.65050435413</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="M6" t="n">
-        <v>89902.65050435415</v>
+        <v>93171.23588390037</v>
       </c>
       <c r="N6" t="n">
-        <v>89902.65050435414</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="O6" t="n">
-        <v>89902.65050435413</v>
+        <v>93171.2358839004</v>
       </c>
       <c r="P6" t="n">
-        <v>89902.65050435414</v>
+        <v>93171.23588390039</v>
       </c>
     </row>
   </sheetData>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34781,22 +34781,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35255,19 +35255,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
@@ -35501,7 +35501,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>43.28534947792182</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9091475161415</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36680,10 +36680,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36838,7 +36838,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36920,7 +36920,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37628,19 +37628,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_0_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577357.7000544966</v>
+        <v>579062.4560687634</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5475808.405183962</v>
+        <v>5475808.405183963</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>78.32097487848354</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -792,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>20.18757968827078</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.46697834767983</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>118.5628686044507</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>56.53057837339762</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J7" t="n">
-        <v>22.0339917726843</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1096,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I8" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,19 +1223,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>85.31372784089211</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I11" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1412,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1455,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,13 +1505,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>64.66314899205665</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="D14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1652,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>241.0142888776591</v>
@@ -1683,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1853,64 +1855,64 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H17" t="n">
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>124.3469240739945</v>
+        <v>119.8418289135661</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1986,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
@@ -2126,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2178,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>186.2351936867444</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,13 +2320,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2336,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>2.799141620211378</v>
       </c>
       <c r="V24" t="n">
-        <v>89.89109712599213</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2609,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2634,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>62.86349518004438</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2731,46 +2733,46 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2798,67 +2800,67 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>50.46697834767978</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>3.26531605719669</v>
       </c>
     </row>
     <row r="30">
@@ -2868,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>118.5121076145115</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>125.8621094766075</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>111.1751113141406</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>198.979616649046</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3269,59 +3271,59 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>123.0310575543738</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,67 +3511,67 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,31 +3581,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>53.52276869380588</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>82.28530073128384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3685,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C41" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>164.4530035161874</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>25.7440292013384</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="E44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.285385643442</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>62.07749986335751</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29.0524176386246</v>
       </c>
     </row>
     <row r="46">
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4355,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>492.4565854669654</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C3" t="n">
-        <v>318.0035561858384</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="D3" t="n">
-        <v>318.0035561858384</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="E3" t="n">
-        <v>158.7661011803829</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4440,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>943.6656608760193</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>943.6656608760193</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>700.2168842319193</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>700.2168842319193</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>492.4565854669654</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.0282188019862</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C5" t="n">
-        <v>266.0282188019862</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D5" t="n">
-        <v>266.0282188019862</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>266.0282188019862</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>266.0282188019862</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>266.0282188019862</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X5" t="n">
-        <v>752.9257720901863</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>738.740224174005</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>564.287194892878</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>415.3527852316268</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>256.1153302261713</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4650,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4668,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y6" t="n">
-        <v>906.955561194073</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4744,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>710.516763498309</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
-        <v>467.067986854209</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H8" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4846,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>862.8876260635219</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>862.8876260635219</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>284.1276524520142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C11" t="n">
-        <v>284.1276524520142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D11" t="n">
-        <v>40.6788758079141</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E11" t="n">
-        <v>40.6788758079141</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F11" t="n">
-        <v>40.6788758079141</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G11" t="n">
-        <v>40.6788758079141</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H11" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W11" t="n">
-        <v>527.5764290961142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X11" t="n">
-        <v>284.1276524520142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y11" t="n">
-        <v>284.1276524520142</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C12" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5151,19 +5153,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>421.9673747597683</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>421.9673747597683</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X12" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="13">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233.7108255783361</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V14" t="n">
-        <v>720.6083788665362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W14" t="n">
-        <v>477.1596022224361</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X14" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y14" t="n">
-        <v>233.7108255783361</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
         <v>19.28114311021272</v>
@@ -5358,49 +5360,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>257.8852890990952</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5457,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X17" t="n">
-        <v>812.6742080953335</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>487.2836868729568</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="C18" t="n">
-        <v>487.2836868729568</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="D18" t="n">
-        <v>487.2836868729568</v>
+        <v>439.055908623784</v>
       </c>
       <c r="E18" t="n">
-        <v>487.2836868729568</v>
+        <v>279.8184536183285</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>487.2836868729568</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y18" t="n">
-        <v>487.2836868729568</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="19">
@@ -5710,10 +5712,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>262.7299197543128</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>431.322492160084</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>431.322492160084</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>431.322492160084</v>
       </c>
     </row>
     <row r="22">
@@ -5947,7 +5949,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C23" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="C23" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6032,7 +6034,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>657.8736156442967</v>
       </c>
       <c r="V24" t="n">
-        <v>645.0344492409727</v>
+        <v>422.721507412554</v>
       </c>
       <c r="W24" t="n">
-        <v>401.5856725968725</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="X24" t="n">
-        <v>193.7341723913397</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
@@ -6257,19 +6259,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>82.77962309005554</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>82.77962309005554</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,7 +6314,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
         <v>542.809531908403</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6418,16 +6420,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X29" t="n">
-        <v>812.6742080953335</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y29" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>452.9407326573341</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C30" t="n">
-        <v>452.9407326573341</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D30" t="n">
-        <v>452.9407326573341</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E30" t="n">
-        <v>293.7032776518786</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>147.1687196787636</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6570,22 +6572,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>660.701031422288</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>660.701031422288</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W30" t="n">
-        <v>660.701031422288</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="X30" t="n">
-        <v>660.701031422288</v>
+        <v>426.8125075943781</v>
       </c>
       <c r="Y30" t="n">
-        <v>452.9407326573341</v>
+        <v>426.8125075943781</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6658,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>131.5792353467183</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>790.6398109613051</v>
+        <v>560.8810491026891</v>
       </c>
       <c r="W33" t="n">
-        <v>547.1910343172051</v>
+        <v>317.4322724585891</v>
       </c>
       <c r="X33" t="n">
-        <v>339.3395341116723</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y33" t="n">
-        <v>131.5792353467183</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>428.1192463369997</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>428.1192463369997</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>279.1848366757484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7047,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>596.3345833570677</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7129,13 +7131,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.4883050441255</v>
+        <v>492.48569440222</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>492.48569440222</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>492.48569440222</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>333.2482393967645</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>186.7136814236494</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y39" t="n">
-        <v>194.4883050441255</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.77557929797318</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.7108255783361</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7421,40 +7423,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="Y41" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424089</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>378.9756972971371</v>
+        <v>344.6327430815141</v>
       </c>
       <c r="C42" t="n">
-        <v>204.52266801601</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D42" t="n">
-        <v>204.52266801601</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E42" t="n">
-        <v>45.28521301055454</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>45.28521301055454</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>45.28521301055454</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>45.28521301055454</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7500,40 +7502,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>720.608378866536</v>
       </c>
       <c r="Y42" t="n">
-        <v>547.1910343172051</v>
+        <v>512.8480801015821</v>
       </c>
     </row>
     <row r="43">
@@ -7591,10 +7593,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
         <v>19.28114311021272</v>
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389062</v>
       </c>
       <c r="C44" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480618</v>
       </c>
       <c r="D44" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7658,40 +7660,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="V44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="W44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="X44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="Y44" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830062</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C45" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D45" t="n">
-        <v>571.6739692052849</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E45" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F45" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G45" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="46">
@@ -7828,19 +7830,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,10 +8309,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9960,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,19 +10904,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11145,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515267</v>
       </c>
       <c r="O42" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,13 +11384,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.5500862927562</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22595,19 +22597,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>79.3241055769174</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22680,13 +22682,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>205.753802392704</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22787,7 +22789,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22799,13 +22801,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>305.6710867513173</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,10 +22831,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22841,16 +22843,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.2641223307892</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22866,13 +22868,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22881,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>81.60186009037089</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.1521174039067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J7" t="n">
-        <v>71.32518834398849</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I8" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23109,19 +23111,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>59.75548455249177</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23166,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I11" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23343,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,13 +23393,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>161.2782330889182</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>284.9381847551875</v>
       </c>
       <c r="D14" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23540,22 +23542,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>128.71681180081</v>
@@ -23571,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23677,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>313.921378732166</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23789,16 +23791,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>20.72228831938942</v>
+        <v>25.22738347981773</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23874,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23975,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
@@ -24014,10 +24016,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24066,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,19 +24104,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>19.53779151673311</v>
       </c>
       <c r="Y21" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,13 +24208,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24224,10 +24226,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>223.1422404607634</v>
       </c>
       <c r="V24" t="n">
-        <v>142.9094900234331</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24449,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24497,13 +24499,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24522,13 +24524,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>94.78158527535656</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24619,7 +24621,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24686,10 +24688,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>356.4090673940316</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>382.9726225988569</v>
       </c>
     </row>
     <row r="30">
@@ -24756,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>48.02107603535582</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>11.48140768660318</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,10 +24812,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24824,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24965,10 +24967,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>219.8305335069347</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,7 +24982,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,7 +24998,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>61.53338767417517</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25014,7 +25016,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25044,16 +25046,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>33.8209705003793</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25126,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25157,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>343.4899854645034</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25287,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>82.65163822293053</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25445,19 +25447,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,31 +25469,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>83.82074846940475</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>123.3973950460205</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25573,7 +25575,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C41" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946028</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>8.255495472128331</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>63.65260365007668</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,13 +25769,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,13 +25833,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933486</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329354</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>95.56758059204344</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386798</v>
       </c>
     </row>
     <row r="46">
@@ -26068,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142976</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473557.9167142976</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473557.9167142975</v>
+        <v>473557.9167142977</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>473557.9167142977</v>
+        <v>473557.9167142975</v>
       </c>
     </row>
     <row r="16">
@@ -26314,7 +26316,7 @@
         <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
         <v>108004.437145366</v>
@@ -26323,7 +26325,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
         <v>108004.437145366</v>
@@ -26341,10 +26343,10 @@
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="N2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26454,7 +26456,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="P4" t="n">
         <v>179.5324977039669</v>
@@ -26519,28 +26521,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21225.79564764732</v>
+        <v>-21225.79564764731</v>
       </c>
       <c r="C6" t="n">
-        <v>59543.63588390042</v>
+        <v>59543.6358839004</v>
       </c>
       <c r="D6" t="n">
-        <v>59543.6358839004</v>
+        <v>59543.63588390039</v>
       </c>
       <c r="E6" t="n">
+        <v>93171.2358839004</v>
+      </c>
+      <c r="F6" t="n">
+        <v>93171.2358839004</v>
+      </c>
+      <c r="G6" t="n">
+        <v>93171.23588390037</v>
+      </c>
+      <c r="H6" t="n">
         <v>93171.23588390039</v>
       </c>
-      <c r="F6" t="n">
-        <v>93171.23588390042</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>93171.2358839004</v>
-      </c>
-      <c r="H6" t="n">
-        <v>93171.2358839004</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93171.23588390037</v>
       </c>
       <c r="J6" t="n">
         <v>30111.29328479416</v>
@@ -26549,19 +26551,19 @@
         <v>93171.23588390039</v>
       </c>
       <c r="L6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.23588390043</v>
       </c>
       <c r="M6" t="n">
-        <v>93171.23588390037</v>
+        <v>93171.23588390043</v>
       </c>
       <c r="N6" t="n">
         <v>93171.2358839004</v>
       </c>
       <c r="O6" t="n">
-        <v>93171.2358839004</v>
+        <v>93171.23588390039</v>
       </c>
       <c r="P6" t="n">
-        <v>93171.23588390039</v>
+        <v>93171.23588390037</v>
       </c>
     </row>
   </sheetData>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,10 +35029,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>43.28534947792182</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35726,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O18" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36680,10 +36682,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36838,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N30" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,19 +37624,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37865,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681934</v>
       </c>
       <c r="O42" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>99.81127712997396</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
